--- a/example_data/EPA/label_corrected/019713-00544-20180514_2018-12-08_085906.xlsx
+++ b/example_data/EPA/label_corrected/019713-00544-20180514_2018-12-08_085906.xlsx
@@ -517,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -571,7 +571,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation</t>
+          <t>irrigation || chemigation</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G242" t="inlineStr"/>
@@ -18051,7 +18051,7 @@
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G648" t="inlineStr"/>
@@ -18105,7 +18105,7 @@
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G650" t="inlineStr"/>
@@ -18872,7 +18872,7 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G678" t="inlineStr"/>
@@ -21149,7 +21149,7 @@
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G764" t="inlineStr"/>
